--- a/LeanneTodolist.xlsx
+++ b/LeanneTodolist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>-&gt;Comment code</t>
   </si>
@@ -59,13 +59,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>in progress</t>
-  </si>
-  <si>
     <t>comments</t>
-  </si>
-  <si>
-    <t>models - pools, controllers-doctor/user/static_pages</t>
   </si>
   <si>
     <t>Done</t>
@@ -419,7 +413,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,18 +431,15 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -486,7 +477,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
